--- a/Discharge/Discharge_2019/Discharge_Aug13.xlsx
+++ b/Discharge/Discharge_2019/Discharge_Aug13.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kriddie/Documents/LongTermData_CayambeCoca/Discharge/Discharge_2019/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FD04414-2508-8648-BE33-2D393F1E8DBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E022276-AEF1-FB4F-81ED-659A172E0935}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7920" yWindow="1020" windowWidth="12860" windowHeight="16820" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7920" yWindow="1020" windowWidth="12860" windowHeight="16820" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="STN1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="12">
   <si>
     <t>STATION 1</t>
   </si>
@@ -69,6 +69,9 @@
   </si>
   <si>
     <t>new depth</t>
+  </si>
+  <si>
+    <t>New depth</t>
   </si>
 </sst>
 </file>
@@ -398,7 +401,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A18" workbookViewId="0">
       <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
@@ -1316,10 +1319,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F60"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A42" sqref="A42"/>
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1884,7 +1887,7 @@
         <v>3.6036000000000038E-4</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>0.87</v>
       </c>
@@ -1904,7 +1907,7 @@
         <v>4.3243200000000044E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>0.9</v>
       </c>
@@ -1924,7 +1927,7 @@
         <v>4.5645600000000043E-4</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>0.93</v>
       </c>
@@ -1944,7 +1947,7 @@
         <v>4.8906000000000047E-4</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>0.96</v>
       </c>
@@ -1964,7 +1967,7 @@
         <v>4.0840799999999883E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>0.99</v>
       </c>
@@ -1984,7 +1987,7 @@
         <v>3.6436400000000043E-4</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1.03</v>
       </c>
@@ -2004,7 +2007,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <f>MEDIAN(A23:A38)</f>
         <v>0.79500000000000004</v>
@@ -2018,10 +2021,355 @@
         <v>6.2920000000000004E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <f>A38-A23</f>
         <v>0.48</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s">
+        <v>2</v>
+      </c>
+      <c r="C44" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" t="s">
+        <v>7</v>
+      </c>
+      <c r="E44" t="s">
+        <v>8</v>
+      </c>
+      <c r="F44" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="B45">
+        <f>B23*2.54</f>
+        <v>0</v>
+      </c>
+      <c r="C45">
+        <v>0</v>
+      </c>
+      <c r="D45">
+        <f>A45</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F45">
+        <f>SUM(E45:E63)</f>
+        <v>8.775395200000001E-3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>0.6</v>
+      </c>
+      <c r="B46">
+        <f t="shared" ref="B46:B60" si="9">B24*2.54</f>
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="C46">
+        <v>0</v>
+      </c>
+      <c r="D46">
+        <f>(A46+(A47-A46)/2)</f>
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="E46">
+        <f>(D46-D45)*(B46)*C46</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>0.63</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="9"/>
+        <v>0.17780000000000001</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ref="D47:D48" si="10">(A47+(A48-A47)/2)</f>
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="E47">
+        <f>(D47-D46)*(B47)*C47</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>0.66</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="9"/>
+        <v>0.20320000000000002</v>
+      </c>
+      <c r="C48">
+        <v>0</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="10"/>
+        <v>0.67500000000000004</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ref="E48:E60" si="11">(D48-D47)*(B48)*C48</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>0.69</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="9"/>
+        <v>0.254</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
+      </c>
+      <c r="D49">
+        <f>(A49+(A50-A49)/2)</f>
+        <v>0.70499999999999996</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>0.72</v>
+      </c>
+      <c r="B50">
+        <f t="shared" si="9"/>
+        <v>0.27939999999999998</v>
+      </c>
+      <c r="C50">
+        <v>5.7200000000000001E-2</v>
+      </c>
+      <c r="D50">
+        <f t="shared" ref="D50" si="12">(A50+(A51-A50)/2)</f>
+        <v>0.73499999999999999</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="11"/>
+        <v>4.7945040000000043E-4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>0.75</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="9"/>
+        <v>0.30480000000000002</v>
+      </c>
+      <c r="C51">
+        <v>5.7200000000000001E-2</v>
+      </c>
+      <c r="D51">
+        <f>(A51+(A52-A51)/2)</f>
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="11"/>
+        <v>5.2303680000000043E-4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>0.78</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="9"/>
+        <v>0.35560000000000003</v>
+      </c>
+      <c r="C52">
+        <v>5.7200000000000001E-2</v>
+      </c>
+      <c r="D52">
+        <f t="shared" ref="D52:D60" si="13">(A52+(A53-A52)/2)</f>
+        <v>0.79500000000000004</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="11"/>
+        <v>6.1020960000000065E-4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>0.81</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="9"/>
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="C53">
+        <v>6.8639999999999993E-2</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="13"/>
+        <v>0.82499999999999996</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="11"/>
+        <v>7.8455519999999772E-4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>0.84</v>
+      </c>
+      <c r="B54">
+        <f t="shared" si="9"/>
+        <v>0.35560000000000003</v>
+      </c>
+      <c r="C54">
+        <v>8.5800000000000001E-2</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="13"/>
+        <v>0.85499999999999998</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="11"/>
+        <v>9.1531440000000098E-4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>0.87</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="9"/>
+        <v>0.35560000000000003</v>
+      </c>
+      <c r="C55">
+        <v>0.10296000000000001</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="13"/>
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="11"/>
+        <v>1.0983772800000013E-3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>0.9</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="9"/>
+        <v>0.35560000000000003</v>
+      </c>
+      <c r="C56">
+        <v>0.10868</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="13"/>
+        <v>0.91500000000000004</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="11"/>
+        <v>1.1593982400000011E-3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>0.93</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="9"/>
+        <v>0.38100000000000001</v>
+      </c>
+      <c r="C57">
+        <v>0.10868</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="13"/>
+        <v>0.94500000000000006</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="11"/>
+        <v>1.2422124000000011E-3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>0.96</v>
+      </c>
+      <c r="B58">
+        <f t="shared" si="9"/>
+        <v>0.35560000000000003</v>
+      </c>
+      <c r="C58">
+        <v>9.7239999999999993E-2</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="13"/>
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="11"/>
+        <v>1.0373563199999971E-3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>0.99</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="9"/>
+        <v>0.35560000000000003</v>
+      </c>
+      <c r="C59">
+        <v>7.4360000000000009E-2</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="13"/>
+        <v>1.01</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="11"/>
+        <v>9.2548456000000109E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>1.03</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="C60">
+        <v>0</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="13"/>
+        <v>0.51500000000000001</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="11"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -2031,10 +2379,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2313,7 +2661,7 @@
       </c>
       <c r="F17">
         <f>SUM(E17:E35)</f>
-        <v>4.6005959999999976E-3</v>
+        <v>5.8558843199999983E-3</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -2530,6 +2878,261 @@
       <c r="A29">
         <f>A27-A17</f>
         <v>0.27999999999999997</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s">
+        <v>2</v>
+      </c>
+      <c r="C32" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" t="s">
+        <v>8</v>
+      </c>
+      <c r="F32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>0.34</v>
+      </c>
+      <c r="B33">
+        <f>B17*2.54</f>
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33">
+        <f>A33</f>
+        <v>0.34</v>
+      </c>
+      <c r="F33">
+        <f>SUM(E33:E51)</f>
+        <v>1.1685513839999998E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>0.36</v>
+      </c>
+      <c r="B34">
+        <f t="shared" ref="B34:B43" si="7">B18*2.54</f>
+        <v>5.0800000000000005E-2</v>
+      </c>
+      <c r="C34">
+        <v>0.15444000000000002</v>
+      </c>
+      <c r="D34">
+        <f>(A34+(A35-A34)/2)</f>
+        <v>0.375</v>
+      </c>
+      <c r="E34">
+        <f>(D34-D33)*(B34)*C34</f>
+        <v>2.7459431999999988E-4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>0.39</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="7"/>
+        <v>7.6200000000000004E-2</v>
+      </c>
+      <c r="C35">
+        <v>0.42899999999999999</v>
+      </c>
+      <c r="D35">
+        <f t="shared" ref="D35:D36" si="8">(A35+(A36-A35)/2)</f>
+        <v>0.40500000000000003</v>
+      </c>
+      <c r="E35">
+        <f>(D35-D34)*(B35)*C35</f>
+        <v>9.8069400000000092E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>0.42</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="7"/>
+        <v>0.10160000000000001</v>
+      </c>
+      <c r="C36">
+        <v>0.58916000000000002</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="8"/>
+        <v>0.435</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ref="E36:E44" si="9">(D36-D35)*(B36)*C36</f>
+        <v>1.7957596799999984E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>0.45</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="7"/>
+        <v>0.127</v>
+      </c>
+      <c r="C37">
+        <v>0.54339999999999999</v>
+      </c>
+      <c r="D37">
+        <f>(A37+(A38-A37)/2)</f>
+        <v>0.46499999999999997</v>
+      </c>
+      <c r="E37">
+        <f t="shared" si="9"/>
+        <v>2.0703539999999982E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>0.48</v>
+      </c>
+      <c r="B38">
+        <f t="shared" si="7"/>
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="C38">
+        <v>0.51480000000000004</v>
+      </c>
+      <c r="D38">
+        <f t="shared" ref="D38" si="10">(A38+(A39-A38)/2)</f>
+        <v>0.495</v>
+      </c>
+      <c r="E38">
+        <f t="shared" si="9"/>
+        <v>2.3536656000000024E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>0.51</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="7"/>
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="C39">
+        <v>0.38324000000000003</v>
+      </c>
+      <c r="D39">
+        <f>(A39+(A40-A39)/2)</f>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="E39">
+        <f t="shared" si="9"/>
+        <v>1.7521732800000016E-3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>0.54</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="7"/>
+        <v>0.15240000000000001</v>
+      </c>
+      <c r="C40">
+        <v>0.35464000000000001</v>
+      </c>
+      <c r="D40">
+        <f t="shared" ref="D40:D44" si="11">(A40+(A41-A40)/2)</f>
+        <v>0.55499999999999994</v>
+      </c>
+      <c r="E40">
+        <f t="shared" si="9"/>
+        <v>1.6214140799999956E-3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="7"/>
+        <v>0.10160000000000001</v>
+      </c>
+      <c r="C41">
+        <v>0.27455999999999997</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="11"/>
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="9"/>
+        <v>8.3685888000000071E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>0.6</v>
+      </c>
+      <c r="B42">
+        <f t="shared" si="7"/>
+        <v>5.0800000000000005E-2</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="11"/>
+        <v>0.61</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>0.62</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="C43">
+        <v>0</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="11"/>
+        <v>0.31</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D44">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -3200,6 +3803,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100BA27023E844F434EBFC790358068B4CE" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="962119b939e32e01d6fe84b679c182bb">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="18299441-e87c-4909-bb3a-a1a391a25027" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="185fd3cf949c73c8f7d83010548f2ed9" ns3:_="">
     <xsd:import namespace="18299441-e87c-4909-bb3a-a1a391a25027"/>
@@ -3383,35 +4001,10 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50483085-E37E-47F9-95A7-B732C2DE5D47}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FF09D76-34E5-40D3-9C25-02948AE58EF5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="18299441-e87c-4909-bb3a-a1a391a25027"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -3433,9 +4026,19 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9FF09D76-34E5-40D3-9C25-02948AE58EF5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{50483085-E37E-47F9-95A7-B732C2DE5D47}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="18299441-e87c-4909-bb3a-a1a391a25027"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>